--- a/Assets/Resources/Configs/Enemy/Enemies.xlsx
+++ b/Assets/Resources/Configs/Enemy/Enemies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1AF9A3-6643-4339-872D-A0CC22975F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A56BB81-7080-469E-8D94-BD498D7AB1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-3825" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
